--- a/target/test-classes/excel/DemoTestData.xlsx
+++ b/target/test-classes/excel/DemoTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawasthi008\Documents\Automation\DemoAutomation\TestAutomation_DemoInstance\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC106246-C00B-4881-8FD5-D4CC2D35994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268E95F-18F1-4769-B49E-778BA7530860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{93EFB86C-CCEA-4FCA-9755-2E6CC76898C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{93EFB86C-CCEA-4FCA-9755-2E6CC76898C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B15CC5-EDEB-4CA0-B99F-87B2657877FC}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96738E33-55DC-4334-AD55-01BA02FFF352}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
